--- a/combined_statement.xlsx
+++ b/combined_statement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leopeng/Documents/School/Personal Project/BOA project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Peng\Documents\GitHub\household-cashflow-analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A028AB-A600-2445-B50D-0CD6FEB8AD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D8C88C-F265-457D-8379-314F01F443BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,7 +780,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -793,7 +793,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -887,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1189,18 +1189,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E77" activeCellId="3" sqref="E74:E76 E72 E71 E77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
